--- a/biology/Botanique/Alghero_rosato/Alghero_rosato.xlsx
+++ b/biology/Botanique/Alghero_rosato/Alghero_rosato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alghero rosato est un vin rosé italien de la région Sardaigne doté d'une appellation DOC depuis le 19 août 1995. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Sassari dans les communes de Alghero, Olmedo, Ossi, Tissi, Usini, Uri, Ittiri ainsi qu'en partie sans la commune de Sassari.
 Voir aussi l’article Alghero frizzante rosato.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rosé
 odeur : vineux, délicat, agréable
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres : 
  pas de données disponibles .</t>
